--- a/docs/avail-bundle.xlsx
+++ b/docs/avail-bundle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="229">
   <si>
     <t>Path</t>
   </si>
@@ -689,9 +689,6 @@
   <si>
     <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/appt-output}
 </t>
-  </si>
-  <si>
-    <t>blah.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -6644,9 +6641,7 @@
       <c r="L54" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -6707,16 +6702,16 @@
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="55">
@@ -7189,7 +7184,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>39</v>
@@ -9398,7 +9393,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -10062,7 +10057,7 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>143</v>
@@ -10613,7 +10608,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -12819,7 +12814,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12842,19 +12837,19 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>39</v>
@@ -12903,7 +12898,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>

--- a/docs/avail-bundle.xlsx
+++ b/docs/avail-bundle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="230">
   <si>
     <t>Path</t>
   </si>
@@ -143,13 +143,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Contains a collection of resources</t>
   </si>
   <si>
-    <t>This is the output Appointment Bundle profile which is returned as a result of the `find` operation.</t>
+    <t>This is the output Appointment Bundle profile which is returned as a result of the *Operation$find* operation.</t>
   </si>
   <si>
     <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId {entry.where(fullUrl).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
@@ -168,6 +165,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">id
 </t>
   </si>
@@ -410,13 +410,16 @@
     <t>Bundle.entry</t>
   </si>
   <si>
+    <t>Entry Slice</t>
+  </si>
+  <si>
     <t>Entry in the bundle - will have a resource, or information</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource, or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:resource}
+    <t xml:space="preserve">value:resource}
 </t>
   </si>
   <si>
@@ -684,7 +687,7 @@
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.</t>
   </si>
   <si>
-    <t>appt-slice</t>
+    <t>Appt Slice</t>
   </si>
   <si>
     <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/appt-output}
@@ -704,7 +707,7 @@
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="match"/&gt;</t>
   </si>
   <si>
-    <t>oo-slice</t>
+    <t>OO Slice</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome
@@ -1044,7 +1047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>38</v>
       </c>
@@ -1060,22 +1063,22 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1138,21 +1141,21 @@
         <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1163,16 +1166,16 @@
         <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>50</v>
@@ -1240,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>39</v>
@@ -1271,16 +1274,16 @@
         <v>40</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>56</v>
@@ -1346,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>39</v>
@@ -1377,16 +1380,16 @@
         <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>61</v>
@@ -1454,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
@@ -1485,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1562,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
@@ -1593,16 +1596,16 @@
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>76</v>
@@ -1670,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>39</v>
@@ -1698,19 +1701,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="H8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>67</v>
@@ -1775,10 +1778,10 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
@@ -1806,19 +1809,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="H9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>91</v>
@@ -1886,7 +1889,7 @@
         <v>40</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>95</v>
@@ -1926,7 +1929,7 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>97</v>
@@ -2023,7 +2026,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2098,7 +2101,7 @@
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -2243,10 +2246,10 @@
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>109</v>
@@ -2326,7 +2329,7 @@
         <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>39</v>
@@ -2342,19 +2345,19 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>102</v>
@@ -2417,10 +2420,10 @@
         <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
@@ -2448,19 +2451,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>61</v>
@@ -2523,10 +2526,10 @@
         <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2548,34 +2551,36 @@
       <c r="A16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2614,14 +2619,14 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>125</v>
@@ -2636,7 +2641,7 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>39</v>
@@ -2650,7 +2655,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2661,7 +2666,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -2736,7 +2741,7 @@
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -2756,7 +2761,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2864,7 +2869,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2881,10 +2886,10 @@
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>109</v>
@@ -2964,7 +2969,7 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -2972,7 +2977,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2992,16 +2997,16 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3052,7 +3057,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3078,7 +3083,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3089,28 +3094,28 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3160,13 +3165,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3186,7 +3191,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3197,25 +3202,25 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3266,13 +3271,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3292,7 +3297,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3303,25 +3308,25 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3372,16 +3377,16 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
@@ -3398,7 +3403,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3409,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3484,7 +3489,7 @@
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3504,7 +3509,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3612,7 +3617,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3629,10 +3634,10 @@
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>109</v>
@@ -3712,7 +3717,7 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -3720,7 +3725,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3731,28 +3736,28 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3781,10 +3786,10 @@
         <v>86</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -3802,13 +3807,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -3828,7 +3833,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3839,28 +3844,28 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3910,13 +3915,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -3936,7 +3941,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3947,25 +3952,25 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4016,16 +4021,16 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4053,7 +4058,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4128,7 +4133,7 @@
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4148,7 +4153,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4256,7 +4261,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4273,10 +4278,10 @@
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>109</v>
@@ -4356,7 +4361,7 @@
         <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4372,28 +4377,28 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4423,10 +4428,10 @@
         <v>86</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4444,13 +4449,13 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -4470,7 +4475,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4478,31 +4483,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4552,13 +4557,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4578,7 +4583,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4589,25 +4594,25 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4658,13 +4663,13 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -4684,7 +4689,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4695,25 +4700,25 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4764,13 +4769,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -4790,7 +4795,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4801,25 +4806,25 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4870,13 +4875,13 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -4896,7 +4901,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4907,25 +4912,25 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4976,13 +4981,13 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -5002,7 +5007,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5013,25 +5018,25 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5082,16 +5087,16 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
@@ -5108,7 +5113,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5119,7 +5124,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5194,7 +5199,7 @@
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5214,7 +5219,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5322,7 +5327,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5339,10 +5344,10 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>109</v>
@@ -5422,7 +5427,7 @@
         <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5430,7 +5435,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5438,28 +5443,28 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5510,13 +5515,13 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -5536,7 +5541,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5547,25 +5552,25 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5616,13 +5621,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -5642,7 +5647,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5653,28 +5658,28 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -5724,13 +5729,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -5750,7 +5755,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5761,28 +5766,28 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5832,13 +5837,13 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -5858,7 +5863,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5869,28 +5874,28 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -5940,13 +5945,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -5969,7 +5974,7 @@
         <v>125</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -5982,22 +5987,22 @@
         <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6060,7 +6065,7 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>39</v>
@@ -6074,7 +6079,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6085,7 +6090,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6160,7 +6165,7 @@
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6180,7 +6185,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6288,7 +6293,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6305,10 +6310,10 @@
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>109</v>
@@ -6388,7 +6393,7 @@
         <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6396,7 +6401,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6416,16 +6421,16 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6476,7 +6481,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6502,7 +6507,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6513,28 +6518,28 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6584,13 +6589,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6610,7 +6615,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6621,11 +6626,11 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
       </c>
@@ -6633,13 +6638,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6690,33 +6695,33 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6727,25 +6732,25 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6796,16 +6801,16 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>100</v>
@@ -6822,7 +6827,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6833,7 +6838,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -6908,7 +6913,7 @@
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -6928,7 +6933,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7036,7 +7041,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7053,10 +7058,10 @@
         <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>109</v>
@@ -7136,7 +7141,7 @@
         <v>39</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7144,7 +7149,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7152,31 +7157,31 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7184,7 +7189,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>39</v>
@@ -7205,10 +7210,10 @@
         <v>86</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7226,13 +7231,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7252,7 +7257,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7263,28 +7268,28 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7334,13 +7339,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7360,7 +7365,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7371,25 +7376,25 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7440,16 +7445,16 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>100</v>
@@ -7466,7 +7471,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7477,7 +7482,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7552,7 +7557,7 @@
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -7572,7 +7577,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7680,7 +7685,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7697,10 +7702,10 @@
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>109</v>
@@ -7780,7 +7785,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -7788,7 +7793,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7796,28 +7801,28 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7847,10 +7852,10 @@
         <v>86</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
@@ -7868,13 +7873,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -7894,7 +7899,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7902,31 +7907,31 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7976,13 +7981,13 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -8002,7 +8007,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8013,25 +8018,25 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8082,13 +8087,13 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8108,7 +8113,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8119,25 +8124,25 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8188,13 +8193,13 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -8214,7 +8219,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8225,25 +8230,25 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8294,13 +8299,13 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -8320,7 +8325,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8331,25 +8336,25 @@
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8400,13 +8405,13 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -8426,7 +8431,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8437,25 +8442,25 @@
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8506,16 +8511,16 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>100</v>
@@ -8532,7 +8537,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8543,7 +8548,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>39</v>
@@ -8618,7 +8623,7 @@
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -8638,7 +8643,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8746,7 +8751,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8763,10 +8768,10 @@
         <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>109</v>
@@ -8846,7 +8851,7 @@
         <v>39</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -8854,7 +8859,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8862,28 +8867,28 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8934,13 +8939,13 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -8960,7 +8965,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8971,25 +8976,25 @@
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9040,13 +9045,13 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
@@ -9066,7 +9071,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9077,28 +9082,28 @@
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9148,13 +9153,13 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -9174,7 +9179,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9185,28 +9190,28 @@
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9256,13 +9261,13 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
@@ -9282,7 +9287,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9293,28 +9298,28 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9364,13 +9369,13 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
@@ -9393,7 +9398,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -9403,25 +9408,25 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="H80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9484,7 +9489,7 @@
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>39</v>
@@ -9498,7 +9503,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9509,7 +9514,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>39</v>
@@ -9584,7 +9589,7 @@
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -9604,7 +9609,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9712,7 +9717,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9729,10 +9734,10 @@
         <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>109</v>
@@ -9812,7 +9817,7 @@
         <v>39</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -9820,7 +9825,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9840,16 +9845,16 @@
         <v>39</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9900,7 +9905,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -9926,7 +9931,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9937,28 +9942,28 @@
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10008,13 +10013,13 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -10034,7 +10039,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10045,25 +10050,25 @@
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="H86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10114,13 +10119,13 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -10140,7 +10145,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10151,25 +10156,25 @@
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="H87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10220,16 +10225,16 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -10246,7 +10251,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10257,7 +10262,7 @@
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>39</v>
@@ -10332,7 +10337,7 @@
         <v>40</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -10352,7 +10357,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10460,7 +10465,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10477,10 +10482,10 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>109</v>
@@ -10560,7 +10565,7 @@
         <v>39</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>
@@ -10568,7 +10573,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10576,31 +10581,31 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="H91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -10608,7 +10613,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -10629,10 +10634,10 @@
         <v>86</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
@@ -10650,13 +10655,13 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -10676,7 +10681,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10687,28 +10692,28 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -10758,13 +10763,13 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -10784,7 +10789,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10795,25 +10800,25 @@
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10864,16 +10869,16 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -10890,7 +10895,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10901,7 +10906,7 @@
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>39</v>
@@ -10976,7 +10981,7 @@
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
@@ -10996,7 +11001,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11104,7 +11109,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11121,10 +11126,10 @@
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>109</v>
@@ -11204,7 +11209,7 @@
         <v>39</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -11212,7 +11217,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11220,28 +11225,28 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11271,10 +11276,10 @@
         <v>86</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -11292,13 +11297,13 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -11318,7 +11323,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11326,31 +11331,31 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -11400,13 +11405,13 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -11426,7 +11431,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11437,25 +11442,25 @@
         <v>40</v>
       </c>
       <c r="F99" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -11506,13 +11511,13 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -11532,7 +11537,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11543,25 +11548,25 @@
         <v>40</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -11612,13 +11617,13 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -11638,7 +11643,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11649,25 +11654,25 @@
         <v>40</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11718,13 +11723,13 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -11744,7 +11749,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11755,25 +11760,25 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11824,13 +11829,13 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
@@ -11850,7 +11855,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11861,25 +11866,25 @@
         <v>40</v>
       </c>
       <c r="F103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11930,16 +11935,16 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -11956,7 +11961,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -11967,7 +11972,7 @@
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>39</v>
@@ -12042,7 +12047,7 @@
         <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -12062,7 +12067,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12170,7 +12175,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12187,10 +12192,10 @@
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>109</v>
@@ -12270,7 +12275,7 @@
         <v>39</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -12278,7 +12283,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12286,28 +12291,28 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -12358,13 +12363,13 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
@@ -12384,7 +12389,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12395,25 +12400,25 @@
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>61</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -12464,13 +12469,13 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -12490,7 +12495,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12501,28 +12506,28 @@
         <v>40</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -12572,13 +12577,13 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -12598,7 +12603,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12609,28 +12614,28 @@
         <v>40</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J110" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -12680,13 +12685,13 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
@@ -12706,7 +12711,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12717,28 +12722,28 @@
         <v>40</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J111" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -12788,13 +12793,13 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
@@ -12814,7 +12819,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12825,31 +12830,31 @@
         <v>40</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J112" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>39</v>
@@ -12898,13 +12903,13 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>

--- a/docs/avail-bundle.xlsx
+++ b/docs/avail-bundle.xlsx
@@ -410,7 +410,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>Entry Slice</t>
+    <t>entry-slices</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource, or information</t>
@@ -687,10 +687,10 @@
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.</t>
   </si>
   <si>
-    <t>Appt Slice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/appt-output}
+    <t>entry-appt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/argo-appt}
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="match"/&gt;</t>
   </si>
   <si>
-    <t>OO Slice</t>
+    <t>entry-oo</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome
@@ -892,7 +892,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.96875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>

--- a/docs/avail-bundle.xlsx
+++ b/docs/avail-bundle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="226">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>Bundle.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Bundle.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>Bundle.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -251,7 +251,7 @@
     <t>Bundle.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -297,7 +297,7 @@
     <t>Bundle.total</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt
+    <t xml:space="preserve">unsignedInt {[]} {[]}
 </t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>Bundle.link</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -334,7 +334,7 @@
     <t>Bundle.link.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -357,7 +357,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>Bundle.entry</t>
-  </si>
-  <si>
-    <t>entry-slices</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource, or information</t>
@@ -465,7 +462,7 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -518,7 +515,7 @@
     <t>Bundle.entry.search.score</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal
+    <t xml:space="preserve">decimal {[]} {[]}
 </t>
   </si>
   <si>
@@ -592,7 +589,7 @@
     <t>Bundle.entry.request.ifModifiedSince</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -690,27 +687,17 @@
     <t>entry-appt</t>
   </si>
   <si>
-    <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/argo-appt}
+    <t xml:space="preserve">Appointment {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/argo-appt]]} {[]}
 </t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled'))}app-2:Either start and end are specified, or neither {start.empty() xor end.exists()}</t>
-  </si>
-  <si>
-    <t>Act[@moodCode &lt;= 'INT']</t>
-  </si>
-  <si>
-    <t>workflow.scheduling</t>
-  </si>
-  <si>
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="match"/&gt;</t>
   </si>
   <si>
     <t>entry-oo</t>
   </si>
   <si>
-    <t xml:space="preserve">OperationOutcome
+    <t xml:space="preserve">OperationOutcome {[]} {[]}
 </t>
   </si>
   <si>
@@ -720,7 +707,7 @@
     <t>Bundle.signature</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature
+    <t xml:space="preserve">Signature {[]} {[]}
 </t>
   </si>
   <si>
@@ -892,7 +879,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.38671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.96875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -927,7 +914,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.26171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2551,9 +2538,7 @@
       <c r="A16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2577,10 +2562,10 @@
         <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2619,14 +2604,14 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>125</v>
@@ -2641,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>39</v>
@@ -2655,7 +2640,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2761,7 +2746,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2869,7 +2854,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2977,7 +2962,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3003,10 +2988,10 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3057,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3083,7 +3068,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3109,13 +3094,13 @@
         <v>61</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3165,7 +3150,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3191,7 +3176,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3214,13 +3199,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3271,7 +3256,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3297,7 +3282,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3323,10 +3308,10 @@
         <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3377,7 +3362,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3386,7 +3371,7 @@
         <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
@@ -3403,7 +3388,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3509,7 +3494,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3617,7 +3602,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3725,7 +3710,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3751,13 +3736,13 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3786,11 +3771,11 @@
         <v>86</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3807,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3833,7 +3818,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3856,16 +3841,16 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3915,7 +3900,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3941,7 +3926,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3967,10 +3952,10 @@
         <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4021,7 +4006,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4030,7 +4015,7 @@
         <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
@@ -4047,7 +4032,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4153,7 +4138,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4261,7 +4246,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4369,7 +4354,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4395,10 +4380,10 @@
         <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4428,11 +4413,11 @@
         <v>86</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4449,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -4475,7 +4460,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4501,13 +4486,13 @@
         <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4557,7 +4542,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>48</v>
@@ -4583,7 +4568,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4609,10 +4594,10 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4663,7 +4648,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4689,7 +4674,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4712,13 +4697,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4769,7 +4754,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4795,7 +4780,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4821,10 +4806,10 @@
         <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4875,7 +4860,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4901,7 +4886,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4927,10 +4912,10 @@
         <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4981,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5007,7 +4992,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5033,10 +5018,10 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5087,16 +5072,16 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
@@ -5113,7 +5098,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5219,7 +5204,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5327,7 +5312,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5435,7 +5420,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5461,10 +5446,10 @@
         <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5515,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>48</v>
@@ -5541,7 +5526,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5567,10 +5552,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5621,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5647,7 +5632,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5673,13 +5658,13 @@
         <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -5729,7 +5714,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5755,7 +5740,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5778,16 +5763,16 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5837,7 +5822,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -5863,7 +5848,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5886,16 +5871,16 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -5945,7 +5930,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -5974,7 +5959,7 @@
         <v>125</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -5999,10 +5984,10 @@
         <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6065,7 +6050,7 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>39</v>
@@ -6079,7 +6064,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6185,7 +6170,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6293,7 +6278,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6401,7 +6386,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6427,10 +6412,10 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6481,7 +6466,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6507,7 +6492,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6533,13 +6518,13 @@
         <v>61</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6589,7 +6574,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6615,7 +6600,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6635,16 +6620,16 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6695,7 +6680,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -6707,21 +6692,21 @@
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6747,10 +6732,10 @@
         <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6801,7 +6786,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -6810,7 +6795,7 @@
         <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>100</v>
@@ -6827,7 +6812,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6933,7 +6918,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7041,7 +7026,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7149,7 +7134,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7175,13 +7160,13 @@
         <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7189,7 +7174,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>39</v>
@@ -7210,11 +7195,11 @@
         <v>86</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
       </c>
@@ -7231,7 +7216,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7257,7 +7242,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7280,16 +7265,16 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7339,7 +7324,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7365,7 +7350,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7391,10 +7376,10 @@
         <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7445,7 +7430,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7454,7 +7439,7 @@
         <v>48</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>100</v>
@@ -7471,7 +7456,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7577,7 +7562,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7685,7 +7670,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7793,7 +7778,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7819,10 +7804,10 @@
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7852,11 +7837,11 @@
         <v>86</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
       </c>
@@ -7873,7 +7858,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>48</v>
@@ -7899,7 +7884,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7925,13 +7910,13 @@
         <v>61</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7981,7 +7966,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>48</v>
@@ -8007,7 +7992,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8033,10 +8018,10 @@
         <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8087,7 +8072,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8113,7 +8098,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8136,13 +8121,13 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8193,7 +8178,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8219,7 +8204,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8245,10 +8230,10 @@
         <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8299,7 +8284,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8325,7 +8310,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8351,10 +8336,10 @@
         <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8405,7 +8390,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8431,7 +8416,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8457,10 +8442,10 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8511,16 +8496,16 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>100</v>
@@ -8537,7 +8522,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8643,7 +8628,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8751,7 +8736,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8859,7 +8844,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8885,10 +8870,10 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8939,7 +8924,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>48</v>
@@ -8965,7 +8950,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8991,10 +8976,10 @@
         <v>61</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9045,7 +9030,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9071,7 +9056,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9097,13 +9082,13 @@
         <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9153,7 +9138,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9179,7 +9164,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9202,16 +9187,16 @@
         <v>49</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9261,7 +9246,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -9287,7 +9272,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9310,16 +9295,16 @@
         <v>49</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9369,7 +9354,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -9398,7 +9383,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -9423,10 +9408,10 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9489,7 +9474,7 @@
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>39</v>
@@ -9503,7 +9488,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9609,7 +9594,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9717,7 +9702,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9825,7 +9810,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9851,10 +9836,10 @@
         <v>39</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9905,7 +9890,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -9931,7 +9916,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9957,13 +9942,13 @@
         <v>61</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10013,7 +9998,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10039,7 +10024,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10062,13 +10047,13 @@
         <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10119,7 +10104,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10145,7 +10130,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10171,10 +10156,10 @@
         <v>97</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10225,7 +10210,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10234,7 +10219,7 @@
         <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -10251,7 +10236,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10357,7 +10342,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10465,7 +10450,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10573,7 +10558,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10599,13 +10584,13 @@
         <v>67</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -10613,7 +10598,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -10634,11 +10619,11 @@
         <v>86</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -10655,7 +10640,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -10681,7 +10666,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10704,16 +10689,16 @@
         <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -10763,7 +10748,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -10789,7 +10774,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10815,10 +10800,10 @@
         <v>97</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10869,7 +10854,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -10878,7 +10863,7 @@
         <v>48</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -10895,7 +10880,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11001,7 +10986,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11109,7 +11094,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11217,7 +11202,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11243,10 +11228,10 @@
         <v>67</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11276,11 +11261,11 @@
         <v>86</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
       </c>
@@ -11297,7 +11282,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>48</v>
@@ -11323,7 +11308,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11349,13 +11334,13 @@
         <v>61</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -11405,7 +11390,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>48</v>
@@ -11431,7 +11416,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11457,10 +11442,10 @@
         <v>102</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -11511,7 +11496,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -11537,7 +11522,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11560,13 +11545,13 @@
         <v>49</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -11617,7 +11602,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -11643,7 +11628,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11669,10 +11654,10 @@
         <v>102</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11723,7 +11708,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -11749,7 +11734,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11775,10 +11760,10 @@
         <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11829,7 +11814,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -11855,7 +11840,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11881,10 +11866,10 @@
         <v>97</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11935,16 +11920,16 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH103" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -11961,7 +11946,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12067,7 +12052,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12175,7 +12160,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12283,7 +12268,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12309,10 +12294,10 @@
         <v>102</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -12363,7 +12348,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>48</v>
@@ -12389,7 +12374,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12415,10 +12400,10 @@
         <v>61</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -12469,7 +12454,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -12495,7 +12480,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12521,13 +12506,13 @@
         <v>102</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -12577,7 +12562,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -12603,7 +12588,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12626,16 +12611,16 @@
         <v>49</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -12685,7 +12670,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -12711,7 +12696,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12734,16 +12719,16 @@
         <v>49</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -12793,7 +12778,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -12819,7 +12804,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12842,19 +12827,19 @@
         <v>49</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>39</v>
@@ -12903,7 +12888,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
